--- a/datasets/plantgroup_sowingchart.xlsx
+++ b/datasets/plantgroup_sowingchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monash\FIT5120\zeronet_web_app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF65D2-50A8-4B24-81FD-1FF7DC5C3FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7071AB4-0BE8-4453-87CB-C19A44D76EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="3525" windowWidth="14610" windowHeight="15585" xr2:uid="{58D95EA2-6AD8-44EB-972B-5B96DE0BEF6A}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{58D95EA2-6AD8-44EB-972B-5B96DE0BEF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,87 +68,12 @@
     <t>Boysenberry Cane</t>
   </si>
   <si>
-    <t>Corn Salad Seeds</t>
-  </si>
-  <si>
-    <t>Corn Seeds</t>
-  </si>
-  <si>
-    <t>Couve Tronchuda Seeds</t>
-  </si>
-  <si>
-    <t>Cress Seeds</t>
-  </si>
-  <si>
-    <t>Cucumber Seeds</t>
-  </si>
-  <si>
-    <t>Cucuzza seeds</t>
-  </si>
-  <si>
     <t>Currants</t>
   </si>
   <si>
-    <t>Dragon Fruit Cuttings</t>
-  </si>
-  <si>
-    <t>Eggplant Seeds</t>
-  </si>
-  <si>
-    <t>Elephant Garlic Bulbs</t>
-  </si>
-  <si>
-    <t>Endive Seeds</t>
-  </si>
-  <si>
-    <t>Fennel Seeds</t>
-  </si>
-  <si>
-    <t>Florence Fennel Seeds</t>
-  </si>
-  <si>
-    <t>Galangal Rhizomes</t>
-  </si>
-  <si>
-    <t>Garland Seeds</t>
-  </si>
-  <si>
-    <t>Garlic Bulbs</t>
-  </si>
-  <si>
     <t>Ginger Rhizomes</t>
   </si>
   <si>
-    <t>Goji Berry Seeds</t>
-  </si>
-  <si>
-    <t>Gooseberry Canes</t>
-  </si>
-  <si>
-    <t>Gourd Seeds</t>
-  </si>
-  <si>
-    <t>Horseradish Roots</t>
-  </si>
-  <si>
-    <t>Jerusalem Artichoke Tubers</t>
-  </si>
-  <si>
-    <t>Potato Tubers</t>
-  </si>
-  <si>
-    <t>Rhubarb Crowns</t>
-  </si>
-  <si>
-    <t>Strawberry Runners</t>
-  </si>
-  <si>
-    <t>Sweet Potato Tubers</t>
-  </si>
-  <si>
-    <t>Youngberry Canes</t>
-  </si>
-  <si>
     <t>Broad Bean</t>
   </si>
   <si>
@@ -290,9 +215,6 @@
     <t>Scarlet Runner Bean</t>
   </si>
   <si>
-    <t>Shallot Bulbs</t>
-  </si>
-  <si>
     <t>Shallot</t>
   </si>
   <si>
@@ -357,6 +279,84 @@
   </si>
   <si>
     <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Youngberry Cane</t>
+  </si>
+  <si>
+    <t>Sweet Potato Tuber</t>
+  </si>
+  <si>
+    <t>Strawberry Runner</t>
+  </si>
+  <si>
+    <t>Shallot Bulb</t>
+  </si>
+  <si>
+    <t>Rhubarb Crown</t>
+  </si>
+  <si>
+    <t>Potato Tuber</t>
+  </si>
+  <si>
+    <t>Jerusalem Artichoke Tuber</t>
+  </si>
+  <si>
+    <t>Horseradish Root</t>
+  </si>
+  <si>
+    <t>Gourd</t>
+  </si>
+  <si>
+    <t>Gooseberry Cane</t>
+  </si>
+  <si>
+    <t>Goji Berry</t>
+  </si>
+  <si>
+    <t>Garlic Bulb</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Galangal Rhizome</t>
+  </si>
+  <si>
+    <t>Florence Fennel</t>
+  </si>
+  <si>
+    <t>Fennel</t>
+  </si>
+  <si>
+    <t>Endive</t>
+  </si>
+  <si>
+    <t>Elephant Garlic Bulb</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Dragon Fruit Cutting</t>
+  </si>
+  <si>
+    <t>Cucuzza</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Cress</t>
+  </si>
+  <si>
+    <t>Couve Tronchuda</t>
+  </si>
+  <si>
+    <t>Corn Salad</t>
+  </si>
+  <si>
+    <t>Corn</t>
   </si>
 </sst>
 </file>
@@ -732,12 +732,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J109" sqref="J109"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>0</v>

--- a/datasets/plantgroup_sowingchart.xlsx
+++ b/datasets/plantgroup_sowingchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monash\FIT5120\zeronet_web_app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7071AB4-0BE8-4453-87CB-C19A44D76EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E32432A-490A-4367-A5AD-0B27F432CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{58D95EA2-6AD8-44EB-972B-5B96DE0BEF6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{58D95EA2-6AD8-44EB-972B-5B96DE0BEF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
-    <t>plant_id</t>
-  </si>
-  <si>
     <t>Amaranth</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Corn</t>
+  </si>
+  <si>
+    <t>plant_group</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107">
         <v>0</v>
